--- a/study1/presentation_for_paper/study1_prompt.xlsx
+++ b/study1/presentation_for_paper/study1_prompt.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study1/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{4F40933B-DE4D-41AD-A1C1-9D2974A5A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DDE29FA-F2C8-4AD4-A65C-B2E1C9FFC91E}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{4F40933B-DE4D-41AD-A1C1-9D2974A5A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3A833A0-74C9-4FF0-B917-8F0A35165754}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{53F2EDB5-F04A-4515-9EEB-04F0EF80D4CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{53F2EDB5-F04A-4515-9EEB-04F0EF80D4CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,29 +38,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Prompt</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+  <si>
+    <t>1st choice</t>
+  </si>
+  <si>
+    <t>2nd choice</t>
+  </si>
+  <si>
+    <t>3rd choice</t>
+  </si>
+  <si>
+    <t>Justification for 1st choice (EI)</t>
+  </si>
+  <si>
+    <t>Justification for 1st choice (NS)</t>
+  </si>
+  <si>
+    <t>Justification for 1st choice (TF)</t>
+  </si>
+  <si>
+    <t>Justification for 1st choice (PJ)</t>
+  </si>
+  <si>
+    <t>ENTP</t>
+  </si>
+  <si>
+    <t>ENFP</t>
+  </si>
+  <si>
+    <t>INTP</t>
+  </si>
+  <si>
+    <t>Displays a range of interests and adaptability, suggesting extraversion.</t>
+  </si>
+  <si>
+    <t>Shows a preference for exploring abstract ideas and creative thinking.</t>
+  </si>
+  <si>
+    <t>Focuses on logical analysis but also values emotional expression, leaning slightly towards thinking.</t>
+  </si>
+  <si>
+    <t>Demonstrates flexibility and spontaneity, characteristic of perceiving.</t>
+  </si>
+  <si>
+    <t>INFP</t>
+  </si>
+  <si>
+    <t>ISFP</t>
+  </si>
+  <si>
+    <t>INFJ</t>
+  </si>
+  <si>
+    <t>Reflects introspection and a preference for solitary reflection, indicating introversion.</t>
+  </si>
+  <si>
+    <t>Emphasizes emotional depth and abstract expression, indicative of intuition.</t>
+  </si>
+  <si>
+    <t>Prioritizes personal values and emotional understanding, aligning with feeling.</t>
+  </si>
+  <si>
+    <t>Shows a contemplative and open-ended approach to life, typical of perceiving.</t>
+  </si>
+  <si>
+    <t>ENTJ</t>
+  </si>
+  <si>
+    <t>INTJ</t>
+  </si>
+  <si>
+    <t>Engages in diverse discussions, suggesting extraversion.</t>
+  </si>
+  <si>
+    <t>Prefers theoretical and abstract discussions, pointing to intuition.</t>
+  </si>
+  <si>
+    <t>Analytical and objective in decision-making, aligning with thinking.</t>
+  </si>
+  <si>
+    <t>Adaptable and open to new ideas, traits of perceiving.</t>
+  </si>
+  <si>
+    <t>The prompt supplied to each LLM via the API</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Analyze the given one group of quotes containing multiple posts from the same speaker (each post is splitted using the symbol '|||') and classify him/her according to the Myers-Briggs Personality Indicator (MBTI).  Provide the top three MBTI predictions with justifications only for the first choice focusing on the four core aspects of MBTI: Extraversion vs. Introversion (E vs I), Sensing vs. Intuition (S vs N), Thinking vs. Feeling (T vs F), and Judging vs. Perceiving (J vs P). Make sure your response is in json format ready to be read using json.loads() method properly and follows the template in {sample_set}. Make sure your output contains all keys from {keys_list} and your answers corresponding to each of the keys.  Do not add any additional text in your response. Here's set of quotes {row['posts_filtered']}"</t>
+    <r>
+      <t>Analyze the given one group of quotes containing multiple posts from the same speaker (each post is splitted using the symbol '|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>||') and classify him/her according to the Myers-Briggs Personality Indicator (MBTI).  Provide the top three MBTI predictions with justifications only for the first choice focusing on the four core aspects of MBTI: Extraversion vs. Introversion (E vs I), Sensing vs. Intuition (S vs N), Thinking vs. Feeling (T vs F), and Judging vs. Perceiving (J vs P). Make sure your response is in json format ready to be read using json.loads() method properly and follows the template in {sample_set}. Make sure your output contains all keys from {keys_list} and your answers corresponding to each of the keys.  Do not add any additional text in your response. Here's set of quotes {row['posts_filtered']}"</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Where:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - {keys_list}                           :  a list of columns in sample_set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - {row['posts_filtered']}    :  Each row contains text from a single author. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - {sample_set}                    :  The following output sample represents the desired format.</t>
+    <t>sample_set dataframe:</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -67,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,25 +166,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,37 +204,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -159,77 +305,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1392113</xdr:rowOff>
+      <xdr:colOff>4893766</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1352550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126FAA75-A229-BB1A-AD01-05C8F8ACDDAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="254000" y="2755900"/>
-          <a:ext cx="6540500" cy="1303213"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084AEE70-5DFC-4802-136D-79859D2350A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19214F5E-091B-26A5-5C21-4E2ED0B4BD3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -252,8 +343,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="177800" y="101600"/>
-          <a:ext cx="6889750" cy="4222750"/>
+          <a:off x="273051" y="2351314"/>
+          <a:ext cx="6652715" cy="1598386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -273,6 +364,137 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCF68EA-91BA-E150-D72B-D45F8633C15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="336550" y="2146300"/>
+          <a:ext cx="10560050" cy="2165350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4D8832-CD6B-A662-C7BA-6DC4745B503C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="323850" y="120650"/>
+          <a:ext cx="7219950" cy="1892300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,67 +814,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C24C067-46F9-4591-A274-20406E5D4BD9}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:C8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="85.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="1.6640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="1.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.08203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
+    <row r="1" spans="2:3" ht="6" customHeight="1"/>
+    <row r="2" spans="2:3" ht="27.5" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
-    <row r="2" spans="1:2" ht="127.5" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="2:3" ht="109.5" customHeight="1">
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
-    <row r="3" spans="1:2" ht="10" customHeight="1"/>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
+    <row r="4" spans="2:3" ht="5.5" customHeight="1"/>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="6" spans="2:3">
+      <c r="B6" s="8"/>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="2:3">
+      <c r="B7" s="8"/>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="8" spans="2:3">
+      <c r="B8" s="9"/>
     </row>
-    <row r="8" spans="1:2" ht="122" customHeight="1"/>
+    <row r="9" spans="2:3" ht="136.5" customHeight="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CD4267-0122-46E1-861D-57EF6804C6A3}">
+  <dimension ref="B1:H6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="0.83203125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="7.75" style="4" customWidth="1"/>
+    <col min="5" max="8" width="28.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="1.08203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="6" customHeight="1"/>
+    <row r="2" spans="2:8" ht="31.5" customHeight="1">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="42">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="42">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="42">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="6.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC49175F-9AD7-48B0-8FFC-E55245C9EBD0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
